--- a/data-raw/response_rates.xlsx
+++ b/data-raw/response_rates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\daniehei\github\ivt-baug-ethz\responseRateAnalysis\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\daniehei\github\responseRateAnalysis\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54451525-DC65-4DC8-A839-6627297D3ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8CDD66-8974-4F59-B3C7-D2A16F0D5F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="14925" xr2:uid="{D1EAF445-99ED-47AD-8453-984D5818C644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17440" xr2:uid="{D1EAF445-99ED-47AD-8453-984D5818C644}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Heimgartner  Daniel:</t>
         </r>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 yellow: contains formula</t>
@@ -56,6 +56,102 @@
       </text>
     </comment>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{96FB1784-CDC4-40A4-88DE-997186BB8F34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Heimgartner  Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not really important (don't really know what these are - but they don't appear in any formula)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{8E15291A-F0AD-4008-8702-1A62D0257D24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Heimgartner  Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These are the main response rates (three categories)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{263264B3-C64D-4DAE-AAE6-9564AC279C9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Heimgartner  Daniel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bis hier in Publikation enthalten: https://www.research-collection.ethz.ch/bitstream/handle/20.500.11850/401257/2/ab1416.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="1" shapeId="0" xr:uid="{A447BF19-C92E-4135-82F9-2E19859E95F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reck  Daniel Jan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Paper: MODE CHOICE, SUBSTITUTION PATTERNS AND ENVIRONMENTAL IMPACTS OF SHARED AND PERSONAL E-SCOOTERS AND E-BIKES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O80" authorId="0" shapeId="0" xr:uid="{94255D6E-915D-4E15-8195-5B69BB12D62B}">
       <text>
         <r>
           <rPr>
@@ -75,79 +171,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-not really important (don't really know what these are - but they don't appear in any formula)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{8E15291A-F0AD-4008-8702-1A62D0257D24}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Heimgartner  Daniel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-These are the main response rates (three categories)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{263264B3-C64D-4DAE-AAE6-9564AC279C9B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Heimgartner  Daniel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Bis hier in Publikation enthalten: https://www.research-collection.ethz.ch/bitstream/handle/20.500.11850/401257/2/ab1416.pdf</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B70" authorId="1" shapeId="0" xr:uid="{A447BF19-C92E-4135-82F9-2E19859E95F1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Reck  Daniel Jan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Paper: MODE CHOICE, SUBSTITUTION PATTERNS AND ENVIRONMENTAL IMPACTS OF SHARED AND PERSONAL E-SCOOTERS AND E-BIKES</t>
+Returned letters or straight out refusal (did not note down the reason in the spreadsheet…)</t>
         </r>
       </text>
     </comment>
@@ -156,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
   <si>
     <t>survey_id</t>
   </si>
@@ -515,21 +539,6 @@
     <t>EBIS</t>
   </si>
   <si>
-    <t>Multimodality in the Swiss New Normal (SNN): Pre-test</t>
-  </si>
-  <si>
-    <t>TODO: count returns</t>
-  </si>
-  <si>
-    <t>Multimodality in the Swiss New Normal (SNN): Stage 1</t>
-  </si>
-  <si>
-    <t>Multimodality in the Swiss New Normal (SNN): Stage 2 (WFH-SP)</t>
-  </si>
-  <si>
-    <t>Multimodality in the Swiss New Normal (SNN): Stage 3 (MTO-SP)</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -591,13 +600,22 @@
   </si>
   <si>
     <t>n_completed</t>
+  </si>
+  <si>
+    <t>Multimodality in the Swiss New Normal (SNN): Stage 1-3 (after exclusion criterion)</t>
+  </si>
+  <si>
+    <t>Multimodality in the Swiss New Normal (SNN): Stage 1 (all)</t>
+  </si>
+  <si>
+    <t>Multimodality in the Swiss New Normal (SNN): Pre-study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,7 +628,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -618,8 +642,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,8 +669,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -656,17 +693,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,8 +821,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{663AE5C5-CE81-48B4-ABD1-7A518F289100}" name="Table1" displayName="Table1" ref="A1:V78" totalsRowShown="0">
-  <autoFilter ref="A1:V78" xr:uid="{745EEE0C-9DEB-4D3E-9FB1-13F9A81EF817}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{663AE5C5-CE81-48B4-ABD1-7A518F289100}" name="Table1" displayName="Table1" ref="A1:V81" totalsRowShown="0">
+  <autoFilter ref="A1:V81" xr:uid="{745EEE0C-9DEB-4D3E-9FB1-13F9A81EF817}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{E62B90AA-6596-4C2E-8BE3-3B68B8ABB882}" name="year"/>
     <tableColumn id="2" xr3:uid="{785ADE2D-B428-4EDC-874E-EFDCE0C8AE43}" name="authors"/>
@@ -1106,117 +1154,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C77394F-6920-4945-96E2-FA66E7DF8E7A}">
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T77" sqref="T77"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -1289,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -1318,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" si="0"/>
+        <f>M3/(L3)*100</f>
         <v>70.870626525630598</v>
       </c>
       <c r="K3" s="3"/>
@@ -1353,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -1417,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -1481,7 +1529,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -1545,7 +1593,7 @@
         <v>31.473684210526315</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -1609,7 +1657,7 @@
         <v>36.077170418006432</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1673,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -1737,7 +1785,7 @@
         <v>8.3890577507598785</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -1804,7 +1852,7 @@
         <v>30.942249240121583</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -1868,7 +1916,7 @@
         <v>14.703832752613241</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1932,7 +1980,7 @@
         <v>19.865319865319865</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -1996,7 +2044,7 @@
         <v>11.31171702284451</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -2060,7 +2108,7 @@
         <v>19.834710743801654</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -2124,7 +2172,7 @@
         <v>25.944272445820431</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -2197,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -2261,7 +2309,7 @@
         <v>43.584905660377359</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -2294,7 +2342,7 @@
         <v>67.312348668280876</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" ref="K16:K64" si="4">M18/(N18-O18)*100</f>
+        <f t="shared" ref="K18:K64" si="4">M18/(N18-O18)*100</f>
         <v>64.726426076833533</v>
       </c>
       <c r="L18">
@@ -2334,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2009</v>
       </c>
@@ -2398,7 +2446,7 @@
         <v>21.794871794871796</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -2462,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -2526,7 +2574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -2599,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -2672,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -2745,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -2818,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -2891,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -2955,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2010</v>
       </c>
@@ -3019,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2010</v>
       </c>
@@ -3092,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -3156,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2010</v>
       </c>
@@ -3220,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -3293,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -3357,7 +3405,7 @@
         <v>24.800000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -3421,7 +3469,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -3485,7 +3533,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -3549,7 +3597,7 @@
         <v>21.800000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -3622,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -3686,7 +3734,7 @@
         <v>23.166509285489457</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -3750,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2012</v>
       </c>
@@ -3814,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -3878,7 +3926,7 @@
         <v>24.895035811311438</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2012</v>
       </c>
@@ -3951,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2012</v>
       </c>
@@ -4015,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2012</v>
       </c>
@@ -4079,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2012</v>
       </c>
@@ -4143,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2012</v>
       </c>
@@ -4207,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2013</v>
       </c>
@@ -4271,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2013</v>
       </c>
@@ -4335,7 +4383,7 @@
         <v>8.3333333333333321</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -4399,7 +4447,7 @@
         <v>18.181818181818183</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -4463,7 +4511,7 @@
         <v>25.674460431654676</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2014</v>
       </c>
@@ -4527,7 +4575,7 @@
         <v>37.381404174573056</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2014</v>
       </c>
@@ -4591,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -4655,7 +4703,7 @@
         <v>69.433962264150935</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -4728,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2015</v>
       </c>
@@ -4801,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -4865,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2015</v>
       </c>
@@ -4938,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2015</v>
       </c>
@@ -5011,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -5084,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -5156,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -5220,7 +5268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2017</v>
       </c>
@@ -5284,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2017</v>
       </c>
@@ -5348,7 +5396,7 @@
         <v>20.708333333333336</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2017</v>
       </c>
@@ -5421,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -5485,7 +5533,7 @@
         <v>10.78838174273859</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -5514,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" ref="J66:J69" si="8">M66/(L66)*100</f>
+        <f t="shared" ref="J66:J74" si="8">M66/(L66)*100</f>
         <v>12.698412698412698</v>
       </c>
       <c r="K66" s="3"/>
@@ -5549,7 +5597,7 @@
         <v>12.698412698412698</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -5613,7 +5661,7 @@
         <v>5.5129533678756477</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -5677,7 +5725,7 @@
         <v>11.149750054336014</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2017</v>
       </c>
@@ -5710,7 +5758,7 @@
         <v>62.240663900414937</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" ref="K69" si="12">M69/(N69-O69)*100</f>
+        <f>M69/(N69-O69)*100</f>
         <v>7.8657577346617726</v>
       </c>
       <c r="L69">
@@ -5750,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -5779,7 +5827,8 @@
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <v>12.7</v>
+        <f t="shared" si="8"/>
+        <v>12.770000000000001</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70">
@@ -5810,10 +5859,10 @@
       </c>
       <c r="V70" s="2">
         <f t="shared" si="11"/>
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+        <v>12.770000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -5842,9 +5891,13 @@
         <v>0</v>
       </c>
       <c r="J71" s="2">
-        <v>35.6</v>
-      </c>
-      <c r="K71" s="3"/>
+        <f t="shared" si="8"/>
+        <v>35.6385068762279</v>
+      </c>
+      <c r="K71" s="3">
+        <f>M71/(N71-O71)*100</f>
+        <v>12.828854314002831</v>
+      </c>
       <c r="L71">
         <v>2545</v>
       </c>
@@ -5879,10 +5932,10 @@
       </c>
       <c r="V71" s="2">
         <f t="shared" si="11"/>
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+        <v>35.6385068762279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2022</v>
       </c>
@@ -5911,9 +5964,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>34.9</v>
-      </c>
-      <c r="K72" s="3"/>
+        <f t="shared" si="8"/>
+        <v>34.929356357927787</v>
+      </c>
+      <c r="K72" s="3">
+        <f>M72/(N72-O72)*100</f>
+        <v>12.572397231247351</v>
+      </c>
       <c r="L72">
         <v>2548</v>
       </c>
@@ -5948,10 +6005,10 @@
       </c>
       <c r="V72" s="2">
         <f t="shared" si="11"/>
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+        <v>34.929356357927787</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -5980,7 +6037,8 @@
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>34.729999999999997</v>
+        <f t="shared" si="8"/>
+        <v>34.730276835539989</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73">
@@ -6003,7 +6061,7 @@
       </c>
       <c r="T73" s="2">
         <f t="shared" si="9"/>
-        <v>34.729999999999997</v>
+        <v>34.730276835539989</v>
       </c>
       <c r="U73" s="2">
         <f t="shared" si="10"/>
@@ -6014,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -6043,7 +6101,8 @@
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <v>73.36</v>
+        <f t="shared" si="8"/>
+        <v>73.363694132599022</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74">
@@ -6074,10 +6133,10 @@
       </c>
       <c r="V74" s="2">
         <f t="shared" si="11"/>
-        <v>73.36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+        <v>73.363694132599022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -6106,7 +6165,8 @@
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <v>65.34</v>
+        <f>M75/(L75)*100</f>
+        <v>65.343158820941483</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75">
@@ -6137,10 +6197,10 @@
       </c>
       <c r="V75" s="2">
         <f t="shared" si="11"/>
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+        <v>65.343158820941483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2022</v>
       </c>
@@ -6169,7 +6229,8 @@
         <v>0</v>
       </c>
       <c r="J76" s="2">
-        <v>27.4</v>
+        <f>M76/(L76)*100</f>
+        <v>27.400000000000002</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76">
@@ -6192,7 +6253,7 @@
       </c>
       <c r="T76" s="2">
         <f t="shared" si="9"/>
-        <v>27.4</v>
+        <v>27.400000000000002</v>
       </c>
       <c r="U76" s="2">
         <f t="shared" si="10"/>
@@ -6203,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -6232,11 +6293,12 @@
         <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>2.7</v>
+        <f>M77/(L77)*100</f>
+        <v>2.7333333333333334</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77">
-        <v>205</v>
+        <v>7500</v>
       </c>
       <c r="M77">
         <v>205</v>
@@ -6265,14 +6327,14 @@
       </c>
       <c r="U77" s="2">
         <f t="shared" si="10"/>
-        <v>2.7</v>
+        <v>2.7333333333333334</v>
       </c>
       <c r="V77" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2023</v>
       </c>
@@ -6301,17 +6363,15 @@
         <v>0</v>
       </c>
       <c r="J78" s="2">
-        <v>2.1</v>
+        <f>M78/(L78)*100</f>
+        <v>1.9275362318840579</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78">
+        <v>69000</v>
+      </c>
+      <c r="M78">
         <v>1330</v>
-      </c>
-      <c r="M78">
-        <v>63081</v>
-      </c>
-      <c r="N78">
-        <v>69000</v>
       </c>
       <c r="O78">
         <v>5919</v>
@@ -6334,137 +6394,312 @@
       </c>
       <c r="U78" s="2">
         <f t="shared" si="10"/>
-        <v>2.1</v>
+        <v>1.9275362318840579</v>
       </c>
       <c r="V78" s="2">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2022</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79">
+        <v>373</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" ref="J79:J81" si="12">M79/(L79)*100</f>
+        <v>71.618743343982956</v>
+      </c>
+      <c r="K79" s="3">
+        <f>M79/(N79-O79)*100</f>
+        <v>17.07719654647029</v>
+      </c>
+      <c r="L79" s="6">
+        <v>1878</v>
+      </c>
+      <c r="M79" s="7">
+        <v>1345</v>
+      </c>
+      <c r="N79" s="7">
+        <v>7967</v>
+      </c>
+      <c r="O79" s="7">
+        <v>91</v>
+      </c>
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>0</v>
+      </c>
+      <c r="R79" s="4">
+        <v>0</v>
+      </c>
+      <c r="S79" s="5">
+        <v>0</v>
+      </c>
+      <c r="T79" s="2">
+        <f t="shared" ref="T79:T81" si="13">IF(H79=0, J79*F79, 0)</f>
+        <v>71.618743343982956</v>
+      </c>
+      <c r="U79" s="2">
+        <f t="shared" ref="U79:U81" si="14">IF(H79=1, J79*F79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V79" s="2">
+        <f t="shared" ref="V79:V81" si="15">IF(F79=0, J79, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2023</v>
+      </c>
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80">
+        <v>254</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="12"/>
+        <v>94.838709677419359</v>
+      </c>
+      <c r="K80" s="3">
+        <f t="shared" ref="K80:K81" si="16">M80/(N80-O80)*100</f>
+        <v>31.612903225806448</v>
+      </c>
+      <c r="L80" s="6">
+        <v>3410</v>
+      </c>
+      <c r="M80" s="7">
+        <v>3234</v>
+      </c>
+      <c r="N80" s="7">
+        <v>10441</v>
+      </c>
+      <c r="O80" s="7">
+        <v>211</v>
+      </c>
+      <c r="P80" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>0</v>
+      </c>
+      <c r="R80" s="4">
+        <v>0</v>
+      </c>
+      <c r="S80" s="5">
+        <v>0</v>
+      </c>
+      <c r="T80" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
+        <f t="shared" si="14"/>
+        <v>94.838709677419359</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81">
+        <v>2023</v>
+      </c>
+      <c r="B81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81">
+        <v>40</v>
+      </c>
+      <c r="D81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81">
+        <v>505</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="12"/>
+        <v>63.324175824175825</v>
+      </c>
+      <c r="K81" s="3">
+        <f t="shared" si="16"/>
+        <v>11.140647655872401</v>
+      </c>
+      <c r="L81" s="6">
+        <v>1456</v>
+      </c>
+      <c r="M81" s="7">
+        <v>922</v>
+      </c>
+      <c r="N81" s="7">
+        <v>10441</v>
+      </c>
+      <c r="O81" s="7">
+        <v>2165</v>
+      </c>
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>0</v>
+      </c>
+      <c r="R81" s="4">
+        <v>0</v>
+      </c>
+      <c r="S81" s="5">
+        <v>0</v>
+      </c>
+      <c r="T81" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="2">
+        <f t="shared" si="14"/>
+        <v>63.324175824175825</v>
+      </c>
+      <c r="V81" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>2022</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B85" t="s">
         <v>110</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>112</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D86" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>112</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D87" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>115</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D88" t="s">
         <v>116</v>
       </c>
-      <c r="E84">
+      <c r="E88">
         <v>1820</v>
       </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="J84">
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="J88">
         <v>9.9</v>
       </c>
-      <c r="L84">
+      <c r="L88">
         <v>1909</v>
       </c>
-      <c r="M84">
+      <c r="M88">
         <v>792</v>
       </c>
-      <c r="N84">
+      <c r="N88">
         <v>8000</v>
       </c>
-      <c r="O84">
+      <c r="O88">
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
         <v>117</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D89" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2022</v>
-      </c>
-      <c r="B91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91">
-        <v>40</v>
-      </c>
-      <c r="D91" t="s">
-        <v>119</v>
-      </c>
-      <c r="O91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>2023</v>
-      </c>
-      <c r="C92">
-        <v>40</v>
-      </c>
-      <c r="D92" t="s">
-        <v>121</v>
-      </c>
-      <c r="O92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>2023</v>
-      </c>
-      <c r="C93">
-        <v>40</v>
-      </c>
-      <c r="D93" t="s">
-        <v>122</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>2023</v>
-      </c>
-      <c r="C94">
-        <v>40</v>
-      </c>
-      <c r="D94" t="s">
-        <v>123</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L97" s="6">
+        <v>7876</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L98" s="6">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L99" s="6">
+        <v>8276</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/response_rates.xlsx
+++ b/data-raw/response_rates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\daniehei\github\responseRateAnalysis\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8CDD66-8974-4F59-B3C7-D2A16F0D5F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C9A11-9630-4696-B389-349B20FD2CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17440" xr2:uid="{D1EAF445-99ED-47AD-8453-984D5818C644}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{D1EAF445-99ED-47AD-8453-984D5818C644}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t>survey_id</t>
   </si>
@@ -590,25 +590,28 @@
     <t>other</t>
   </si>
   <si>
-    <t>yes_recruitment_no_incentive</t>
-  </si>
-  <si>
-    <t>yes_recruitment_yes_incentive</t>
-  </si>
-  <si>
-    <t>no_recruitment_no_incentive</t>
-  </si>
-  <si>
     <t>n_completed</t>
   </si>
   <si>
-    <t>Multimodality in the Swiss New Normal (SNN): Stage 1-3 (after exclusion criterion)</t>
-  </si>
-  <si>
     <t>Multimodality in the Swiss New Normal (SNN): Stage 1 (all)</t>
   </si>
   <si>
     <t>Multimodality in the Swiss New Normal (SNN): Pre-study</t>
+  </si>
+  <si>
+    <t>flag_yes_no</t>
+  </si>
+  <si>
+    <t>flag_yes_yes</t>
+  </si>
+  <si>
+    <t>flag_no_no</t>
+  </si>
+  <si>
+    <t>flag_no_yes</t>
+  </si>
+  <si>
+    <t>Multimodality in the Swiss New Normal (SNN): Stage 2-3 (telework eligible)</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -715,12 +718,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -729,6 +734,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -737,6 +743,16 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -821,9 +837,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{663AE5C5-CE81-48B4-ABD1-7A518F289100}" name="Table1" displayName="Table1" ref="A1:V81" totalsRowShown="0">
-  <autoFilter ref="A1:V81" xr:uid="{745EEE0C-9DEB-4D3E-9FB1-13F9A81EF817}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{663AE5C5-CE81-48B4-ABD1-7A518F289100}" name="Table1" displayName="Table1" ref="A1:W81" totalsRowShown="0">
+  <autoFilter ref="A1:W81" xr:uid="{745EEE0C-9DEB-4D3E-9FB1-13F9A81EF817}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{E62B90AA-6596-4C2E-8BE3-3B68B8ABB882}" name="year"/>
     <tableColumn id="2" xr3:uid="{785ADE2D-B428-4EDC-874E-EFDCE0C8AE43}" name="authors"/>
     <tableColumn id="3" xr3:uid="{6CEAE314-A234-43A3-A31C-C6D3F462F4ED}" name="survey_id"/>
@@ -833,24 +849,27 @@
     <tableColumn id="8" xr3:uid="{0D17938C-CA87-4C99-A680-45E84108AF63}" name="motivation_call_or_letter"/>
     <tableColumn id="9" xr3:uid="{3144CE86-562E-4032-8692-874C7CC2AAB5}" name="incentive"/>
     <tableColumn id="10" xr3:uid="{6A1DFB76-9F19-4100-BC80-E657E79E74C8}" name="social_network"/>
-    <tableColumn id="11" xr3:uid="{92A306E3-1D8C-41D5-AE0E-E40A0E14CF77}" name="response_rate" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{1B8B300D-83E5-4D53-BE60-E31D61B851BA}" name="cooperation_rate" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{EEC2882E-39D7-4C0B-8183-99B62F2B8CD9}" name="sample_size" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{92A306E3-1D8C-41D5-AE0E-E40A0E14CF77}" name="response_rate" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{1B8B300D-83E5-4D53-BE60-E31D61B851BA}" name="cooperation_rate" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{EEC2882E-39D7-4C0B-8183-99B62F2B8CD9}" name="sample_size" dataDxfId="8"/>
     <tableColumn id="14" xr3:uid="{4489ECA3-EED7-489F-A883-472F61F94129}" name="n_completed"/>
     <tableColumn id="15" xr3:uid="{1EAE9BD3-8E17-4017-A68B-267D1D38E6D1}" name="n_invited"/>
     <tableColumn id="16" xr3:uid="{8DB5A996-96D2-4929-BC2B-65208E142127}" name="n_invalid"/>
-    <tableColumn id="17" xr3:uid="{480B7C2B-3B9F-4347-8FEC-9BA3F93EAE7D}" name="partial_interviews" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{A5E7A60A-CC76-4EAD-A83F-C1EF557DC1C6}" name="refusal_rate" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{4653D165-9BBC-439B-8E4A-8361A477EA56}" name="non_contacts" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{89C17ED7-46C3-41A0-8ADB-30B519479AC9}" name="other" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{41604D63-66F3-466B-91D1-5921293BCD87}" name="yes_recruitment_no_incentive" dataDxfId="2">
-      <calculatedColumnFormula>IF(H2=0, J2*F2, 0)</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{480B7C2B-3B9F-4347-8FEC-9BA3F93EAE7D}" name="partial_interviews" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{A5E7A60A-CC76-4EAD-A83F-C1EF557DC1C6}" name="refusal_rate" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{4653D165-9BBC-439B-8E4A-8361A477EA56}" name="non_contacts" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{89C17ED7-46C3-41A0-8ADB-30B519479AC9}" name="other" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{41604D63-66F3-466B-91D1-5921293BCD87}" name="flag_yes_yes" dataDxfId="3">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{10FD692C-1E8B-40FF-8DA5-1EECB515DC00}" name="yes_recruitment_yes_incentive" dataDxfId="1">
-      <calculatedColumnFormula>IF(H2=1, J2*F2,0)</calculatedColumnFormula>
+    <tableColumn id="22" xr3:uid="{10FD692C-1E8B-40FF-8DA5-1EECB515DC00}" name="flag_yes_no" dataDxfId="2">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{122F3B1C-7BDB-45B7-9DCD-68E1DD85A287}" name="no_recruitment_no_incentive" dataDxfId="0">
-      <calculatedColumnFormula>IF(F2=0, J2, 0)</calculatedColumnFormula>
+    <tableColumn id="23" xr3:uid="{122F3B1C-7BDB-45B7-9DCD-68E1DD85A287}" name="flag_no_no" dataDxfId="1">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C9BD346A-B497-4628-A398-35A74CD4B207}" name="flag_no_yes" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1154,49 +1173,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C77394F-6920-4945-96E2-FA66E7DF8E7A}">
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="F31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA64" sqref="AA64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -1234,7 +1252,7 @@
         <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N1" t="s">
         <v>130</v>
@@ -1255,16 +1273,19 @@
         <v>135</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -1325,19 +1346,23 @@
         <v>0</v>
       </c>
       <c r="T2" s="2">
-        <f t="shared" ref="T2:T33" si="1">IF(H2=0, J2*F2, 0)</f>
-        <v>67.713004484304932</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U2" s="2">
-        <f t="shared" ref="U2:U33" si="2">IF(H2=1, J2*F2,0)</f>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V2" s="2">
-        <f t="shared" ref="V2:V33" si="3">IF(F2=0, J2, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -1389,19 +1414,23 @@
         <v>0</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="1"/>
-        <v>70.870626525630598</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -1453,19 +1482,23 @@
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="1"/>
-        <v>52.740612861458779</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -1517,19 +1550,23 @@
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U5" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V5" s="2">
-        <f t="shared" si="3"/>
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -1581,19 +1618,23 @@
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="3"/>
-        <v>31.473684210526315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -1645,19 +1686,23 @@
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="3"/>
-        <v>36.077170418006432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1709,19 +1754,23 @@
         <v>0</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="1"/>
-        <v>46.564885496183209</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2005</v>
       </c>
@@ -1773,19 +1822,23 @@
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="3"/>
-        <v>8.3890577507598785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -1840,19 +1893,23 @@
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="3"/>
-        <v>30.942249240121583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2005</v>
       </c>
@@ -1904,19 +1961,23 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="3"/>
-        <v>14.703832752613241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1968,19 +2029,23 @@
         <v>0</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="3"/>
-        <v>19.865319865319865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -2032,19 +2097,23 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="3"/>
-        <v>11.31171702284451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -2096,19 +2165,23 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="3"/>
-        <v>19.834710743801654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -2160,19 +2233,23 @@
         <v>0</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="3"/>
-        <v>25.944272445820431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -2233,19 +2310,23 @@
         <v>0</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="1"/>
-        <v>58.308157099697887</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -2297,19 +2378,23 @@
         <v>0</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="3"/>
-        <v>43.584905660377359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W17" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2009</v>
       </c>
@@ -2342,7 +2427,7 @@
         <v>67.312348668280876</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" ref="K18:K64" si="4">M18/(N18-O18)*100</f>
+        <f t="shared" ref="K18:K64" si="1">M18/(N18-O18)*100</f>
         <v>64.726426076833533</v>
       </c>
       <c r="L18">
@@ -2370,19 +2455,23 @@
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="2"/>
-        <v>67.312348668280876</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2009</v>
       </c>
@@ -2434,19 +2523,23 @@
         <v>0</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="3"/>
-        <v>21.794871794871796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W19" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -2498,19 +2591,23 @@
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="2"/>
-        <v>57.04225352112676</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -2562,19 +2659,23 @@
         <v>0</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -2607,7 +2708,7 @@
         <v>50.5</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>17.813051146384478</v>
       </c>
       <c r="L22">
@@ -2635,19 +2736,23 @@
         <v>0</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="2"/>
-        <v>50.5</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -2680,7 +2785,7 @@
         <v>40.714285714285715</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10.052910052910052</v>
       </c>
       <c r="L23">
@@ -2708,19 +2813,23 @@
         <v>0</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="2"/>
-        <v>40.714285714285715</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -2753,7 +2862,7 @@
         <v>76.470588235294116</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>18.13953488372093</v>
       </c>
       <c r="L24">
@@ -2781,19 +2890,23 @@
         <v>0</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="2"/>
-        <v>76.470588235294116</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -2826,7 +2939,7 @@
         <v>79.591836734693871</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>18.13953488372093</v>
       </c>
       <c r="L25">
@@ -2854,19 +2967,23 @@
         <v>0</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="2"/>
-        <v>79.591836734693871</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -2899,7 +3016,7 @@
         <v>80.24439918533605</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>33.848797250859107</v>
       </c>
       <c r="L26">
@@ -2927,19 +3044,23 @@
         <v>0</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="2"/>
-        <v>80.24439918533605</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2010</v>
       </c>
@@ -2991,19 +3112,23 @@
         <v>0</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="1"/>
-        <v>68.686868686868678</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2010</v>
       </c>
@@ -3055,19 +3180,23 @@
         <v>0</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="1"/>
-        <v>58.620689655172406</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2010</v>
       </c>
@@ -3100,7 +3229,7 @@
         <v>71.900826446281002</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>26.047904191616766</v>
       </c>
       <c r="L29">
@@ -3128,19 +3257,23 @@
         <v>0</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="1"/>
-        <v>71.900826446281002</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2010</v>
       </c>
@@ -3192,19 +3325,23 @@
         <v>0</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="1"/>
-        <v>69.428891377379614</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2010</v>
       </c>
@@ -3256,19 +3393,23 @@
         <v>0</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="1"/>
-        <v>66.511627906976742</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U31" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V31" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2010</v>
       </c>
@@ -3301,7 +3442,7 @@
         <v>69.303955933900852</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>23.287901733131417</v>
       </c>
       <c r="L32">
@@ -3329,19 +3470,23 @@
         <v>0</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="1"/>
-        <v>69.303955933900852</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U32" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -3393,19 +3538,23 @@
         <v>0</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U33" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="3"/>
-        <v>24.800000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -3457,19 +3606,23 @@
         <v>0</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ref="T34:T65" si="5">IF(H34=0, J34*F34, 0)</f>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" ref="U34:U65" si="6">IF(H34=1, J34*F34,0)</f>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" ref="V34:V65" si="7">IF(F34=0, J34, 0)</f>
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2011</v>
       </c>
@@ -3521,19 +3674,23 @@
         <v>0</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U35" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V35" s="2">
-        <f t="shared" si="7"/>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -3585,19 +3742,23 @@
         <v>0</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="7"/>
-        <v>21.800000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -3630,7 +3791,7 @@
         <v>71.400000000000006</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>42.969230769230769</v>
       </c>
       <c r="L37">
@@ -3658,19 +3819,23 @@
         <v>0</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="5"/>
-        <v>71.400000000000006</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2011</v>
       </c>
@@ -3722,19 +3887,23 @@
         <v>0</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="7"/>
-        <v>23.166509285489457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W38" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -3786,19 +3955,23 @@
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="6"/>
-        <v>83.573717948717956</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2012</v>
       </c>
@@ -3850,19 +4023,23 @@
         <v>0</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" si="5"/>
-        <v>72.708757637474548</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2011</v>
       </c>
@@ -3914,19 +4091,23 @@
         <v>0</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="7"/>
-        <v>24.895035811311438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W41" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2012</v>
       </c>
@@ -3959,7 +4140,7 @@
         <v>52.049910873440282</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9.2776954035162049</v>
       </c>
       <c r="L42">
@@ -3987,19 +4168,23 @@
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" si="5"/>
-        <v>52.049910873440282</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2012</v>
       </c>
@@ -4051,19 +4236,23 @@
         <v>0</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="6"/>
-        <v>68.1967213114754</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2012</v>
       </c>
@@ -4115,19 +4304,23 @@
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="6"/>
-        <v>55.502392344497608</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2012</v>
       </c>
@@ -4179,19 +4372,23 @@
         <v>0</v>
       </c>
       <c r="T45" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U45" s="2">
-        <f t="shared" si="6"/>
-        <v>90.702702702702695</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V45" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2012</v>
       </c>
@@ -4243,19 +4440,23 @@
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="5"/>
-        <v>37.5</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2013</v>
       </c>
@@ -4307,19 +4508,23 @@
         <v>0</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2013</v>
       </c>
@@ -4371,19 +4576,23 @@
         <v>0</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U48" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="7"/>
-        <v>8.3333333333333321</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W48" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -4435,19 +4644,23 @@
         <v>0</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U49" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V49" s="2">
-        <f t="shared" si="7"/>
-        <v>18.181818181818183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W49" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -4499,19 +4712,23 @@
         <v>0</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U50" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" si="7"/>
-        <v>25.674460431654676</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W50" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2014</v>
       </c>
@@ -4563,19 +4780,23 @@
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U51" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="7"/>
-        <v>37.381404174573056</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W51" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2014</v>
       </c>
@@ -4627,19 +4848,23 @@
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U52" s="2">
-        <f t="shared" si="6"/>
-        <v>51.442307692307686</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -4691,19 +4916,23 @@
         <v>0</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U53" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="7"/>
-        <v>69.433962264150935</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W53" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -4736,7 +4965,7 @@
         <v>90.909090909090907</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
       <c r="L54">
@@ -4764,19 +4993,23 @@
         <v>0</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="5"/>
-        <v>90.909090909090907</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2015</v>
       </c>
@@ -4809,7 +5042,7 @@
         <v>83.571428571428569</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>29.25</v>
       </c>
       <c r="L55">
@@ -4837,19 +5070,23 @@
         <v>0</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" si="5"/>
-        <v>83.571428571428569</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U55" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2015</v>
       </c>
@@ -4901,19 +5138,23 @@
         <v>0</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="5"/>
-        <v>76.900000000000006</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2015</v>
       </c>
@@ -4949,13 +5190,13 @@
         <f>M57/(N57-O57)*100</f>
         <v>4.9435028248587569</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="7">
         <v>67</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="7">
         <v>35</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="7">
         <v>800</v>
       </c>
       <c r="O57">
@@ -4974,19 +5215,23 @@
         <v>0</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U57" s="2">
-        <f t="shared" si="6"/>
-        <v>52.238805970149251</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2015</v>
       </c>
@@ -5019,16 +5264,16 @@
         <v>54.014598540145982</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.2370842179759372</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="7">
         <v>137</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="7">
         <v>74</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="7">
         <v>1600</v>
       </c>
       <c r="O58">
@@ -5047,19 +5292,23 @@
         <v>0</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U58" s="2">
-        <f t="shared" si="6"/>
-        <v>54.014598540145982</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V58" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -5092,16 +5341,16 @@
         <v>60.20000000000001</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.7686660111438877</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="7">
         <v>191</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="7">
         <v>114.98200000000001</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="7">
         <v>3500</v>
       </c>
       <c r="O59">
@@ -5120,19 +5369,23 @@
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U59" s="2">
-        <f t="shared" si="6"/>
-        <v>60.20000000000001</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V59" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2016</v>
       </c>
@@ -5164,16 +5417,16 @@
         <v>63.6</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.2705551651440619</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="7">
         <v>118</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="7">
         <v>75</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="7">
         <v>1600</v>
       </c>
       <c r="O60">
@@ -5192,19 +5445,23 @@
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U60" s="2">
-        <f t="shared" si="6"/>
-        <v>63.6</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V60" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2017</v>
       </c>
@@ -5256,19 +5513,23 @@
         <v>381</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W61" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2017</v>
       </c>
@@ -5320,19 +5581,23 @@
         <v>2</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U62" s="2">
-        <f t="shared" si="6"/>
-        <v>89.473684210526315</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W62" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2017</v>
       </c>
@@ -5384,19 +5649,23 @@
         <v>8806</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U63" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V63" s="2">
-        <f t="shared" si="7"/>
-        <v>20.708333333333336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W63" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2017</v>
       </c>
@@ -5429,7 +5698,7 @@
         <v>81.359906213364596</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>55.855130784708251</v>
       </c>
       <c r="L64">
@@ -5457,19 +5726,23 @@
         <v>164</v>
       </c>
       <c r="T64" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U64" s="2">
-        <f t="shared" si="6"/>
-        <v>81.359906213364596</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V64" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2018</v>
       </c>
@@ -5521,19 +5794,23 @@
         <v>0</v>
       </c>
       <c r="T65" s="2">
-        <f t="shared" si="5"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U65" s="2">
-        <f t="shared" si="6"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V65" s="2">
-        <f t="shared" si="7"/>
-        <v>10.78838174273859</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W65" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -5562,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" ref="J66:J74" si="8">M66/(L66)*100</f>
+        <f t="shared" ref="J66:J74" si="2">M66/(L66)*100</f>
         <v>12.698412698412698</v>
       </c>
       <c r="K66" s="3"/>
@@ -5585,19 +5862,23 @@
         <v>0</v>
       </c>
       <c r="T66" s="2">
-        <f t="shared" ref="T66:T78" si="9">IF(H66=0, J66*F66, 0)</f>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U66" s="2">
-        <f t="shared" ref="U66:U78" si="10">IF(H66=1, J66*F66,0)</f>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V66" s="2">
-        <f t="shared" ref="V66:V78" si="11">IF(F66=0, J66, 0)</f>
-        <v>12.698412698412698</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W66" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2018</v>
       </c>
@@ -5649,19 +5930,23 @@
         <v>0</v>
       </c>
       <c r="T67" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U67" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V67" s="2">
-        <f t="shared" si="11"/>
-        <v>5.5129533678756477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W67" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -5690,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>11.149750054336014</v>
       </c>
       <c r="K68" s="3"/>
@@ -5713,19 +5998,23 @@
         <v>0</v>
       </c>
       <c r="T68" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U68" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V68" s="2">
-        <f t="shared" si="11"/>
-        <v>11.149750054336014</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W68" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2017</v>
       </c>
@@ -5754,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>62.240663900414937</v>
       </c>
       <c r="K69" s="3">
@@ -5786,19 +6075,23 @@
         <v>0</v>
       </c>
       <c r="T69" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U69" s="2">
-        <f t="shared" si="10"/>
-        <v>62.240663900414937</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V69" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W69" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -5827,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>12.770000000000001</v>
       </c>
       <c r="K70" s="3"/>
@@ -5850,19 +6143,23 @@
         <v>0</v>
       </c>
       <c r="T70" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U70" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V70" s="2">
-        <f t="shared" si="11"/>
-        <v>12.770000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W70" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -5891,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>35.6385068762279</v>
       </c>
       <c r="K71" s="3">
@@ -5923,19 +6220,23 @@
         <v>0</v>
       </c>
       <c r="T71" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U71" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V71" s="2">
-        <f t="shared" si="11"/>
-        <v>35.6385068762279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W71" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2022</v>
       </c>
@@ -5964,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>34.929356357927787</v>
       </c>
       <c r="K72" s="3">
@@ -5996,19 +6297,23 @@
         <v>0</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U72" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V72" s="2">
-        <f t="shared" si="11"/>
-        <v>34.929356357927787</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W72" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -6037,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>34.730276835539989</v>
       </c>
       <c r="K73" s="3"/>
@@ -6060,19 +6365,23 @@
         <v>0</v>
       </c>
       <c r="T73" s="2">
-        <f t="shared" si="9"/>
-        <v>34.730276835539989</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U73" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V73" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -6101,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>73.363694132599022</v>
       </c>
       <c r="K74" s="3"/>
@@ -6124,19 +6433,23 @@
         <v>0</v>
       </c>
       <c r="T74" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U74" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V74" s="2">
-        <f t="shared" si="11"/>
-        <v>73.363694132599022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W74" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -6188,19 +6501,23 @@
         <v>0</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U75" s="2">
-        <f t="shared" si="10"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V75" s="2">
-        <f t="shared" si="11"/>
-        <v>65.343158820941483</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W75" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2022</v>
       </c>
@@ -6252,19 +6569,23 @@
         <v>0</v>
       </c>
       <c r="T76" s="2">
-        <f t="shared" si="9"/>
-        <v>27.400000000000002</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U76" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="V76" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W76" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2022</v>
       </c>
@@ -6281,7 +6602,7 @@
         <v>2750</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -6322,19 +6643,23 @@
         <v>0</v>
       </c>
       <c r="T77" s="2">
-        <f>IF(H77=0, J77*F77, 0)</f>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U77" s="2">
-        <f t="shared" si="10"/>
-        <v>2.7333333333333334</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V77" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W77" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2023</v>
       </c>
@@ -6351,7 +6676,7 @@
         <v>3150</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -6389,19 +6714,23 @@
         <v>0</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U78" s="2">
-        <f t="shared" si="10"/>
-        <v>1.9275362318840579</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V78" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W78" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2022</v>
       </c>
@@ -6412,13 +6741,13 @@
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E79">
         <v>373</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -6430,15 +6759,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" ref="J79:J81" si="12">M79/(L79)*100</f>
-        <v>71.618743343982956</v>
-      </c>
-      <c r="K79" s="3">
-        <f>M79/(N79-O79)*100</f>
+        <f t="shared" ref="J79:J81" si="3">M79/(L79)*100</f>
         <v>17.07719654647029</v>
       </c>
-      <c r="L79" s="6">
-        <v>1878</v>
+      <c r="K79" s="3"/>
+      <c r="L79" s="8">
+        <f>Table1[[#This Row],[n_invited]]-Table1[[#This Row],[n_invalid]]</f>
+        <v>7876</v>
       </c>
       <c r="M79" s="7">
         <v>1345</v>
@@ -6462,19 +6789,23 @@
         <v>0</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" ref="T79:T81" si="13">IF(H79=0, J79*F79, 0)</f>
-        <v>71.618743343982956</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
       </c>
       <c r="U79" s="2">
-        <f t="shared" ref="U79:U81" si="14">IF(H79=1, J79*F79,0)</f>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="V79" s="2">
-        <f t="shared" ref="V79:V81" si="15">IF(F79=0, J79, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W79" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2023</v>
       </c>
@@ -6485,33 +6816,31 @@
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E80">
         <v>254</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="12"/>
-        <v>94.838709677419359</v>
-      </c>
-      <c r="K80" s="3">
-        <f t="shared" ref="K80:K81" si="16">M80/(N80-O80)*100</f>
+        <f t="shared" si="3"/>
         <v>31.612903225806448</v>
       </c>
-      <c r="L80" s="6">
-        <v>3410</v>
+      <c r="K80" s="3"/>
+      <c r="L80" s="8">
+        <f>Table1[[#This Row],[n_invited]]-Table1[[#This Row],[n_invalid]]</f>
+        <v>10230</v>
       </c>
       <c r="M80" s="7">
         <v>3234</v>
@@ -6535,19 +6864,23 @@
         <v>0</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="13"/>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" si="14"/>
-        <v>94.838709677419359</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V80" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W80" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2023</v>
       </c>
@@ -6558,7 +6891,7 @@
         <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E81">
         <v>505</v>
@@ -6576,25 +6909,18 @@
         <v>0</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="12"/>
-        <v>63.324175824175825</v>
-      </c>
-      <c r="K81" s="3">
-        <f t="shared" si="16"/>
-        <v>11.140647655872401</v>
-      </c>
-      <c r="L81" s="6">
-        <v>1456</v>
+        <f t="shared" si="3"/>
+        <v>72.03125</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="8">
+        <v>1280</v>
       </c>
       <c r="M81" s="7">
         <v>922</v>
       </c>
-      <c r="N81" s="7">
-        <v>10441</v>
-      </c>
-      <c r="O81" s="7">
-        <v>2165</v>
-      </c>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
       <c r="P81" s="4">
         <v>0</v>
       </c>
@@ -6608,19 +6934,23 @@
         <v>0</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="U81" s="2">
-        <f t="shared" si="14"/>
-        <v>63.324175824175825</v>
+        <f>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="V81" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W81" s="2">
+        <f>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2022</v>
       </c>
@@ -6631,7 +6961,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>112</v>
       </c>
@@ -6639,7 +6969,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>112</v>
       </c>
@@ -6647,7 +6977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>115</v>
       </c>
@@ -6679,7 +7009,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>117</v>
       </c>
@@ -6687,19 +7017,34 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L97" s="6">
         <v>7876</v>
       </c>
     </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L98" s="6">
         <v>10230</v>
       </c>
     </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L99" s="6">
         <v>8276</v>
+      </c>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="6">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L105" s="6">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L106" s="6">
+        <v>1456</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/response_rates.xlsx
+++ b/data-raw/response_rates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\daniehei\github\responseRateAnalysis\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C9A11-9630-4696-B389-349B20FD2CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAEB9FB-4F72-4387-981D-32E43233DC12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{D1EAF445-99ED-47AD-8453-984D5818C644}"/>
   </bookViews>
@@ -599,19 +599,19 @@
     <t>Multimodality in the Swiss New Normal (SNN): Pre-study</t>
   </si>
   <si>
-    <t>flag_yes_no</t>
-  </si>
-  <si>
-    <t>flag_yes_yes</t>
-  </si>
-  <si>
-    <t>flag_no_no</t>
-  </si>
-  <si>
-    <t>flag_no_yes</t>
-  </si>
-  <si>
     <t>Multimodality in the Swiss New Normal (SNN): Stage 2-3 (telework eligible)</t>
+  </si>
+  <si>
+    <t>RxI</t>
+  </si>
+  <si>
+    <t>RxNI</t>
+  </si>
+  <si>
+    <t>NRxNI</t>
+  </si>
+  <si>
+    <t>NRxI</t>
   </si>
 </sst>
 </file>
@@ -859,16 +859,16 @@
     <tableColumn id="18" xr3:uid="{A5E7A60A-CC76-4EAD-A83F-C1EF557DC1C6}" name="refusal_rate" dataDxfId="6"/>
     <tableColumn id="19" xr3:uid="{4653D165-9BBC-439B-8E4A-8361A477EA56}" name="non_contacts" dataDxfId="5"/>
     <tableColumn id="20" xr3:uid="{89C17ED7-46C3-41A0-8ADB-30B519479AC9}" name="other" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{41604D63-66F3-466B-91D1-5921293BCD87}" name="flag_yes_yes" dataDxfId="3">
+    <tableColumn id="21" xr3:uid="{41604D63-66F3-466B-91D1-5921293BCD87}" name="RxI" dataDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{10FD692C-1E8B-40FF-8DA5-1EECB515DC00}" name="flag_yes_no" dataDxfId="2">
+    <tableColumn id="22" xr3:uid="{10FD692C-1E8B-40FF-8DA5-1EECB515DC00}" name="RxNI" dataDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[recruitment]]=1,1,0)*IF(Table1[[#This Row],[incentive]]=1,0,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{122F3B1C-7BDB-45B7-9DCD-68E1DD85A287}" name="flag_no_no" dataDxfId="1">
+    <tableColumn id="23" xr3:uid="{122F3B1C-7BDB-45B7-9DCD-68E1DD85A287}" name="NRxNI" dataDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,0,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C9BD346A-B497-4628-A398-35A74CD4B207}" name="flag_no_yes" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{C9BD346A-B497-4628-A398-35A74CD4B207}" name="NRxI" dataDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[recruitment]]=1,0,1)*IF(Table1[[#This Row],[incentive]]=1,1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C77394F-6920-4945-96E2-FA66E7DF8E7A}">
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA64" sqref="AA64"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,13 +1276,13 @@
         <v>140</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -6891,7 +6891,7 @@
         <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E81">
         <v>505</v>
